--- a/DUT/IssuesDUT.xlsx
+++ b/DUT/IssuesDUT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a5144053\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E479A5-5E48-4A2F-AE01-364592402596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBD13B9-1AD1-4BFE-BE91-7875A0DF8AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{C5615CE2-4531-4FE6-93B0-BFEE995D28BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>No.</t>
   </si>
@@ -68,7 +68,10 @@
     <t>đối với check memory cho những biến không phải mảng -&gt; cần để ý xem atest gen ra có bị thiếu mất &amp; ko. Nếu ko sẽ raise lên lỗi ko tương thức kiểu giữa 2 cái đang check.</t>
   </si>
   <si>
-    <t>fix tên map_GaaRSCANRegs gen ra trong atest, gen ra sai: bị nối map_ACCESS....</t>
+    <t>fix tên map_GaaRSCANRegs gen ra trong atest, gen ra sai: bị nối map_ACCESS.... nếu ta stub tên biến static theo rule "map_tên static var" thì sẽ gặp tình trạng này.</t>
+  </si>
+  <si>
+    <t>Solution: để đơn giản thì đặt tên stub cho biến static = map_không trùng tên biến static</t>
   </si>
 </sst>
 </file>
@@ -127,11 +130,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -329,6 +332,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>263949</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>16021</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{085D409A-815C-20C9-7970-44974FEE8F2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="8220075"/>
+          <a:ext cx="8255424" cy="2844946"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -629,45 +676,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E7940C-F6FA-4E82-A594-0BB82013B377}">
-  <dimension ref="A1:P44"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.54296875" style="3" customWidth="1"/>
     <col min="10" max="10" width="36.453125" style="2" customWidth="1"/>
     <col min="12" max="12" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
@@ -675,7 +723,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>2</v>
       </c>
       <c r="B18" t="s">
@@ -688,7 +736,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>3</v>
       </c>
       <c r="B26" t="s">
@@ -696,7 +744,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>4</v>
       </c>
       <c r="B27" t="s">
@@ -704,7 +752,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>5</v>
       </c>
       <c r="B28" t="s">
@@ -720,7 +768,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>6</v>
       </c>
       <c r="B43" t="s">
@@ -728,11 +776,16 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>7</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
